--- a/Song List.xlsx
+++ b/Song List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Holiday Lighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BEE23AF-0B6E-4D2F-BD55-B2EA8A35886C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2051E24B-8CAF-4D67-91BE-CB77751F22E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{EE9F73ED-AA1B-4B5A-B986-9C31A6309626}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{EE9F73ED-AA1B-4B5A-B986-9C31A6309626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="134">
   <si>
     <t>I Think We're Alone Now</t>
   </si>
@@ -116,15 +116,9 @@
     <t>Cozy Little Christmas</t>
   </si>
   <si>
-    <t>Christmas Lights (Coldplay)</t>
-  </si>
-  <si>
     <t>Gobble Gobble</t>
   </si>
   <si>
-    <t>Merry Christmas (Elton John; Ed Sheeran)</t>
-  </si>
-  <si>
     <t>Over the River</t>
   </si>
   <si>
@@ -134,45 +128,12 @@
     <t>Red Christmas</t>
   </si>
   <si>
-    <t>Jingle Bells - Buble</t>
-  </si>
-  <si>
     <t>Candy Cane Lane</t>
   </si>
   <si>
-    <t>Rockin' Around the Christmas Tree (Brenda Lee)</t>
-  </si>
-  <si>
-    <t>Up on the Housetop (Reba)</t>
-  </si>
-  <si>
-    <t>The Greatest Show</t>
-  </si>
-  <si>
-    <t>Hippo</t>
-  </si>
-  <si>
-    <t>Xmas Vacay</t>
-  </si>
-  <si>
-    <t>Xmas is Coming</t>
-  </si>
-  <si>
-    <t>Mad Russian Xmas</t>
-  </si>
-  <si>
     <t>Snowman</t>
   </si>
   <si>
-    <t>Xmas Eve in Sarjevo</t>
-  </si>
-  <si>
-    <t>Don't Know What Xmas Is</t>
-  </si>
-  <si>
-    <t>Grinch</t>
-  </si>
-  <si>
     <t>Do a Little Good</t>
   </si>
   <si>
@@ -182,15 +143,6 @@
     <t>You Make it Feel Like Christmas</t>
   </si>
   <si>
-    <t>Christmas Tree Farm</t>
-  </si>
-  <si>
-    <t>Christmas Everyday</t>
-  </si>
-  <si>
-    <t>Jingle Bells - Kaskade, Soran</t>
-  </si>
-  <si>
     <t>Song</t>
   </si>
   <si>
@@ -350,7 +302,142 @@
     <t>Nickelback</t>
   </si>
   <si>
-    <t>Pixel Pro Sequences</t>
+    <t>Pixar</t>
+  </si>
+  <si>
+    <t>Idinia Menzel</t>
+  </si>
+  <si>
+    <t>TSO</t>
+  </si>
+  <si>
+    <t>Pentatonix</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Cold Play</t>
+  </si>
+  <si>
+    <t>Christmas Lights</t>
+  </si>
+  <si>
+    <t>Matthew West</t>
+  </si>
+  <si>
+    <t>Showstopper Sequences</t>
+  </si>
+  <si>
+    <t>Elton John; Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Merry Christmas</t>
+  </si>
+  <si>
+    <t>Pentatonix ft Lindsey Stirling</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>Xtreme Sequences</t>
+  </si>
+  <si>
+    <t>Kylie Cantrall</t>
+  </si>
+  <si>
+    <t>Michael Buble</t>
+  </si>
+  <si>
+    <t>Jingle Bells</t>
+  </si>
+  <si>
+    <t>Kaskade, Soran</t>
+  </si>
+  <si>
+    <t>Pixel Pro Displays</t>
+  </si>
+  <si>
+    <t>The Greatest Show Intro</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Brenda Lee</t>
+  </si>
+  <si>
+    <t>Rockin' Around the Christmas Tree</t>
+  </si>
+  <si>
+    <t>Running up that Hill (Remix)</t>
+  </si>
+  <si>
+    <t>Kate Bush</t>
+  </si>
+  <si>
+    <t>Up on the Housetop</t>
+  </si>
+  <si>
+    <t>Reba McIntyre</t>
+  </si>
+  <si>
+    <t>The Greatest Showman Soundtrack</t>
+  </si>
+  <si>
+    <t>I want a Hippopataumus for Christmas</t>
+  </si>
+  <si>
+    <t>Gayla Peevy</t>
+  </si>
+  <si>
+    <t>Christmas Vacation</t>
+  </si>
+  <si>
+    <t>Mavis Staples</t>
+  </si>
+  <si>
+    <t>A Mad Russian Christmas</t>
+  </si>
+  <si>
+    <t>Christmas Even in Sarajevo</t>
+  </si>
+  <si>
+    <t>I don't Know What Christmas Is (But Christmas Time is Here)</t>
+  </si>
+  <si>
+    <t>Old 97s</t>
+  </si>
+  <si>
+    <t>You're a Mean One, Mr Grinch</t>
+  </si>
+  <si>
+    <t>Lindsey Stirling, Feat Sabrina Carpenter</t>
+  </si>
+  <si>
+    <t>Ryan Reynolds &amp; Will Ferrell</t>
+  </si>
+  <si>
+    <t>Andy Williams</t>
+  </si>
+  <si>
+    <t>Gwen Stefani</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Underneath the Tree</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Lindsey Stirling, Feat Pentatonix</t>
   </si>
 </sst>
 </file>
@@ -725,15 +812,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F059AE-798A-47AE-BE95-B4622A3FA5A7}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.08984375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="12.90625" customWidth="1"/>
     <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
@@ -742,39 +829,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>2025</v>
@@ -785,16 +872,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>2026</v>
@@ -805,16 +892,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F4">
         <v>2026</v>
@@ -825,16 +912,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>2023</v>
@@ -842,19 +929,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F6">
         <v>2023</v>
@@ -865,16 +952,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>2023</v>
@@ -885,16 +972,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>2022</v>
@@ -902,19 +989,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>2026</v>
@@ -925,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>2025</v>
@@ -945,16 +1032,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>2023</v>
@@ -965,16 +1052,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>2023</v>
@@ -985,16 +1072,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>2022</v>
@@ -1002,19 +1089,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <v>2024</v>
@@ -1025,16 +1112,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>2026</v>
@@ -1042,19 +1129,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>2024</v>
@@ -1065,16 +1152,16 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>2024</v>
@@ -1082,19 +1169,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <v>2025</v>
@@ -1105,16 +1192,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>2025</v>
@@ -1122,19 +1209,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>2026</v>
@@ -1142,19 +1229,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <v>2025</v>
@@ -1165,16 +1252,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F22">
         <v>2026</v>
@@ -1185,16 +1272,16 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>2024</v>
@@ -1205,16 +1292,16 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F24">
         <v>2025</v>
@@ -1225,16 +1312,16 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <v>2025</v>
@@ -1242,19 +1329,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F26">
         <v>2025</v>
@@ -1262,19 +1349,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F27">
         <v>2025</v>
@@ -1282,19 +1369,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F28">
         <v>2025</v>
@@ -1305,16 +1392,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F29">
         <v>2024</v>
@@ -1325,16 +1412,16 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F30">
         <v>2026</v>
@@ -1345,16 +1432,16 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F31">
         <v>2026</v>
@@ -1365,16 +1452,16 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F32">
         <v>2026</v>
@@ -1385,16 +1472,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F33">
         <v>2025</v>
@@ -1402,250 +1489,596 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34">
+        <v>2026</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35">
+        <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <v>2023</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>2023</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>2024</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39">
+        <v>2024</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <v>2024</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41">
+        <v>2024</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>2024</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43">
+        <v>2023</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44">
+        <v>2024</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>2025</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46">
+        <v>2025</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47">
+        <v>2025</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Song List.xlsx
+++ b/Song List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Holiday Lighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2051E24B-8CAF-4D67-91BE-CB77751F22E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BD2FF6-6A6E-4E8B-8479-0A75E861387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{EE9F73ED-AA1B-4B5A-B986-9C31A6309626}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{EE9F73ED-AA1B-4B5A-B986-9C31A6309626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="227">
   <si>
     <t>I Think We're Alone Now</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Katy Perry</t>
   </si>
   <si>
-    <t>Citizens of Halloween-Town</t>
-  </si>
-  <si>
     <t>2WEI</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>Bette Midler</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Muse</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
     <t>Pentatonix ft Lindsey Stirling</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
     <t>Mariah Carey</t>
   </si>
   <si>
@@ -425,9 +416,6 @@
     <t>Andy Williams</t>
   </si>
   <si>
-    <t>Gwen Stefani</t>
-  </si>
-  <si>
     <t>Kelly Clarkson</t>
   </si>
   <si>
@@ -438,16 +426,315 @@
   </si>
   <si>
     <t>Lindsey Stirling, Feat Pentatonix</t>
+  </si>
+  <si>
+    <t>sequence link</t>
+  </si>
+  <si>
+    <t>song image link</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/snowman-by-sia.1510/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/candy-cane-lane-by-sia.1482/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/the-dead-dance-lady-gaga.1404/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/darkside-by-neoni.1338/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/kpop-demon-hunters-your-idol.1333/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/mary-did-you-know-pentatonix.1324/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/christmas-lights-coldplay.1314/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/let-it-go-frozen.1310/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/abracadabra-lady-gaga.1233/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/carousel-melanie-martinez.1185/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/shadow-livingston.1242/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/spooky-scary-skeletons-remix.1212/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/defying-gravity-wicked.1207/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/haunted-mansion-intro-grim-grinning-ghosts.1181/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/e-t-katy-perry.1180/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/this-is-halloween.1175/</t>
+  </si>
+  <si>
+    <t>Danny Elfman</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/separate-ways-stranger-things-version-journey.1161/</t>
+  </si>
+  <si>
+    <t>Frosty the Snowman</t>
+  </si>
+  <si>
+    <t>Jimmy Durante</t>
+  </si>
+  <si>
+    <t>RGB Sequences</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/products/jimmy-durante-frosty-the-snowman</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/products/elvis-kane-brown-blue-christmas</t>
+  </si>
+  <si>
+    <t>Blue Christmas</t>
+  </si>
+  <si>
+    <t>Elvis and Kane Brown</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/products/gwen-stefani-you-make-it-feel-like-christmas-feat-blake-shelton</t>
+  </si>
+  <si>
+    <t>Gwen Stefani feat Blake Shelton</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/products/brenda-lee-rockin-around-the-christmas-tree</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/products/kelly-clarkson-underneath-the-tree</t>
+  </si>
+  <si>
+    <t>Fancy Like Christmas</t>
+  </si>
+  <si>
+    <t>Walker Hayes</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/products/walker-hayes-fancy-like-christmas</t>
+  </si>
+  <si>
+    <t>Winter Wonderland</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/products/michael-buble-winter-wonderland</t>
+  </si>
+  <si>
+    <t>https://pixelsequencepros.com/products/it-must-be-halloween-lvcrft</t>
+  </si>
+  <si>
+    <t>https://pixelsequencepros.com/products/youll-float-too-remix-onderkoffer</t>
+  </si>
+  <si>
+    <t>https://pixelsequencepros.com/products/jingle-bells-kaskade</t>
+  </si>
+  <si>
+    <t>https://pixelsequencepros.com/cdn/shop/files/cover_82d672b5-6641-482d-89d6-83c2401929a9.jpg?v=1767472156&amp;width=823</t>
+  </si>
+  <si>
+    <t>https://pixelsequencepros.com/cdn/shop/files/cover_01ebf3ff-cfc5-476d-a50a-e79e53972c59.jpg?v=1731728175&amp;width=823</t>
+  </si>
+  <si>
+    <t>https://pixelsequencepros.com/cdn/shop/products/ItRemix-cover.jpg?v=1690397976&amp;width=823</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/cdn/shop/files/FancyLikeChristmas_720x.png?v=1699931488</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/cdn/shop/products/Michael-Buble-Winter-Wonderland-Album-Cover_720x.jpg?v=1675018662</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/cdn/shop/files/71s4fBTzynL._UXNaN_FMwebp_QL85_720x.png?v=1730686462</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/cdn/shop/files/BlueChristmas_720x.png?v=1701451855</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/cdn/shop/products/Gwen-Stefani-You-Make-It-Feel-Like-Christmas-Album-Cover_720x.jpg?v=1675023330</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/cdn/shop/products/Album-Cover-Rockin-Around-The-Christmas-Tree_720x.jpg?v=1675015453</t>
+  </si>
+  <si>
+    <t>https://rgb-sequences.com/cdn/shop/products/51WC953qm-L._UX716_FMwebp_QL85_720x.webp?v=1677465309</t>
+  </si>
+  <si>
+    <t>DragulAPT Mashup</t>
+  </si>
+  <si>
+    <t>DJ Cummerbund</t>
+  </si>
+  <si>
+    <t>https://theawesomer.com/photos/2025/04/dragulapt_dj_cummerbund_t.jpg</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/products/free-halloween-horror-lights-2024</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/products/halloween-horror-lights-2022-free-sequence</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/products/free-halloween-horror-lights-2023</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/cdn/shop/files/bloody-mary-lady-gaga-traduzione_1024x1024@2x.jpg?v=1695568416</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/cdn/shop/products/devilwentdowntogeorgianickelback_1024x1024@2x.jpg?v=1630156980</t>
+  </si>
+  <si>
+    <t>Fall out Boy</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/products/halloween-horror-lights-2020</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/cdn/shop/products/LightEmUpFallOutBoy_1024x1024@2x.jpg?v=1598234176</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/products/ghostbusters-remix</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/cdn/shop/products/GHOSTBUSTERSREMIX_1024x1024@2x.jpg?v=1650719515</t>
+  </si>
+  <si>
+    <t>https://visionarylightshows.com/cdn/shop/products/Halloween-lo-ween_1024x1024@2x.webp?v=1661544726</t>
+  </si>
+  <si>
+    <t>https://showstoppersequences.com/Gobble-Gobble-Matthew-West_p_1308.html</t>
+  </si>
+  <si>
+    <t>https://showstoppersequences.com/I-Want-a-Hippopotamus-for-Christmas-Gayla-Peevey_p_28.html</t>
+  </si>
+  <si>
+    <t>https://showstoppersequences.com/Red-Christmas-Kylie-Cantrall_p_1412.html</t>
+  </si>
+  <si>
+    <t>https://showstoppersequences.com/Christmas-Vacation-Mavis-Staples_p_18.html</t>
+  </si>
+  <si>
+    <t>Rudolph the Red Nosed Reindeer</t>
+  </si>
+  <si>
+    <t>Burl Ives</t>
+  </si>
+  <si>
+    <t>https://showstoppersequences.com/Rudolph-the-Red-Nosed-Reindeer-Burl-Ives_p_1302.html</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/monster-mash.271/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/hocus-pocus-i-put-a-spell-on-you.1237/</t>
+  </si>
+  <si>
+    <t>Lights at Saguraro Trails</t>
+  </si>
+  <si>
+    <t>https://easyquences.com/shop/muse-you-make-me-feel-like-its-halloween/</t>
+  </si>
+  <si>
+    <t>https://easyquences.com/wp-content/uploads/2025/03/Muse-You-Make-Me-Feel-Like-Its-Halloween-512x512-Cover.png</t>
+  </si>
+  <si>
+    <t>https://easyquences.com/shop/dj-cummerbund-dragulapt/</t>
+  </si>
+  <si>
+    <t>Sounding Joy</t>
+  </si>
+  <si>
+    <t>Uptown Funk</t>
+  </si>
+  <si>
+    <t>Mark Ronson ft Bruno Mars</t>
+  </si>
+  <si>
+    <t>Ellie Holcomb</t>
+  </si>
+  <si>
+    <t>https://ezrgb.com/product/lindsey-stirling-ft-david-archuleta-magic-pixel-pro-displays</t>
+  </si>
+  <si>
+    <t>https://ezrgb.com/_next/image?url=https%3A%2F%2Fcms.ezrgb.com%2Fwp-content%2Fuploads%2F2025%2F10%2F41jpeTsQG1L._UX716_FMwebp_QL85_-600x600-1.webp&amp;w=1200&amp;q=75</t>
+  </si>
+  <si>
+    <t>https://ezrgb.com/_next/image?url=https%3A%2F%2Fcms.ezrgb.com%2Fwp-content%2Fuploads%2F2024%2F11%2F31s0OBWV9SL._SL500_-1.jpg&amp;w=1200&amp;q=75</t>
+  </si>
+  <si>
+    <t>https://ezrgb.com/product/imagine-dragons-believer-pixel-pro-displays</t>
+  </si>
+  <si>
+    <t>https://ezrgb.com/product/ellie-holcomb-sounding-joy-pixel-pro-displays</t>
+  </si>
+  <si>
+    <t>https://ezrgb.com/_next/image?url=https%3A%2F%2Fcms.ezrgb.com%2Fwp-content%2Fuploads%2F2024%2F10%2F61MFhz5MarL._SL500_-1.jpg&amp;w=1200&amp;q=75</t>
+  </si>
+  <si>
+    <t>https://ezrgb.com/_next/image?url=https%3A%2F%2Fcms.ezrgb.com%2Fwp-content%2Fuploads%2F2025%2F01%2F51hS-R56Q3L._SL500_.jpg&amp;w=1200&amp;q=75</t>
+  </si>
+  <si>
+    <t>https://ezrgb.com/product/mark-ronson-ft-bruno-mars-uptown-funk-pixel-pro-displays</t>
+  </si>
+  <si>
+    <t>https://litlightsequences.com/products/running-up-that-hill-from-stranger-things-xlights-sequence</t>
+  </si>
+  <si>
+    <t>Lit Lights Sequences</t>
+  </si>
+  <si>
+    <t>https://litlightsequences.com/cdn/shop/products/ScreenShot2022-07-18at4.19.28PM.png?v=1658179189</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>redsmall</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/threads/jingle-bells-michael-buble-and-the-puppini-sisters.5748/</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/up-on-the-housetop-reba-mcentire.1200/</t>
+  </si>
+  <si>
+    <t>Christmas Dave</t>
+  </si>
+  <si>
+    <t>https://xlightsseq.com/sequences/its-the-most-wonderful-time-of-the-year-andy-williams.1429/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,16 +757,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F059AE-798A-47AE-BE95-B4622A3FA5A7}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,11 +1113,13 @@
     <col min="1" max="1" width="51.08984375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="104.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="106" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -846,8 +1138,14 @@
       <c r="F1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -866,8 +1164,11 @@
       <c r="F2">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,27 +1188,33 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>2026</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -926,8 +1233,11 @@
       <c r="F5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -947,7 +1257,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -966,13 +1276,16 @@
       <c r="F7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -986,13 +1299,16 @@
       <c r="F8">
         <v>2022</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -1007,32 +1323,35 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>2025</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -1047,12 +1366,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -1067,7 +1386,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,13 +1405,16 @@
       <c r="F13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -1107,12 +1429,12 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -1127,12 +1449,12 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1146,13 +1468,16 @@
       <c r="F16">
         <v>2024</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -1167,12 +1492,12 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1186,8 +1511,11 @@
       <c r="F18">
         <v>2025</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,393 +1534,486 @@
       <c r="F19">
         <v>2025</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>2025</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>2026</v>
+      </c>
+      <c r="G21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <v>2025</v>
+      </c>
+      <c r="G22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23">
         <v>2026</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="G23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>2024</v>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>2025</v>
+      </c>
+      <c r="G25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>2025</v>
+      </c>
+      <c r="G26" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23">
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>2025</v>
+      </c>
+      <c r="G27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>2025</v>
+      </c>
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>2025</v>
+      </c>
+      <c r="G29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30">
         <v>2024</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="G30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31">
         <v>2026</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>2026</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>2026</v>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <v>2025</v>
+      </c>
+      <c r="G34" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>2025</v>
+      </c>
+      <c r="G35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>2026</v>
+      </c>
+      <c r="G36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
         <v>86</v>
       </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35">
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>2024</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -1604,15 +2025,18 @@
         <v>43</v>
       </c>
       <c r="F39">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2023</v>
+      </c>
+      <c r="G39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1624,35 +2048,38 @@
         <v>43</v>
       </c>
       <c r="F40">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F41">
         <v>2024</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
         <v>47</v>
@@ -1667,421 +2094,679 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
         <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F43">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2024</v>
+      </c>
+      <c r="G43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44">
         <v>2024</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <v>2025</v>
+      </c>
+      <c r="G48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49">
+        <v>2025</v>
+      </c>
+      <c r="G49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <v>2025</v>
+      </c>
+      <c r="G50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <v>2025</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52">
+        <v>2025</v>
+      </c>
+      <c r="G52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <v>2023</v>
+      </c>
+      <c r="G54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55">
+        <v>2023</v>
+      </c>
+      <c r="G55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57">
+        <v>2024</v>
+      </c>
+      <c r="G57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>2025</v>
+      </c>
+      <c r="G62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63">
+        <v>2025</v>
+      </c>
+      <c r="G63" t="s">
+        <v>157</v>
+      </c>
+      <c r="H63" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64">
+        <v>2025</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65">
+        <v>2025</v>
+      </c>
+      <c r="G65" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" t="s">
         <v>104</v>
       </c>
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" t="s">
-        <v>100</v>
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66">
+        <v>2025</v>
+      </c>
+      <c r="G66" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67">
+        <v>2025</v>
+      </c>
+      <c r="G67" t="s">
+        <v>153</v>
+      </c>
+      <c r="H67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68">
+        <v>2025</v>
+      </c>
+      <c r="G68" t="s">
+        <v>154</v>
+      </c>
+      <c r="H68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69">
+        <v>2025</v>
+      </c>
+      <c r="G69" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70">
+        <v>2025</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71">
+        <v>2025</v>
+      </c>
+      <c r="G71" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G70" r:id="rId1" xr:uid="{31ABE8A9-403E-461A-A463-3E64B8F6D2F6}"/>
+    <hyperlink ref="G64" r:id="rId2" xr:uid="{4532ED9D-FEBD-48DD-B816-CDC2E3ED5E93}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{D11788CC-7AD2-40F5-8919-9E8F1A14E375}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>